--- a/Code/Results/Cases/Case_4_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_219/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.01178099470778</v>
+        <v>17.6866637779875</v>
       </c>
       <c r="C2">
-        <v>12.35771565407796</v>
+        <v>10.6983053153646</v>
       </c>
       <c r="D2">
-        <v>8.73391378359776</v>
+        <v>13.83711915403442</v>
       </c>
       <c r="E2">
-        <v>8.474412421422032</v>
+        <v>14.65007535403013</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.68749488685986</v>
+        <v>39.18698738840938</v>
       </c>
       <c r="H2">
-        <v>10.02614187075732</v>
+        <v>16.99749112202236</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.615974581518815</v>
+        <v>8.910433531478912</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.320831027284705</v>
+        <v>11.83112848282943</v>
       </c>
       <c r="M2">
-        <v>13.25672205770269</v>
+        <v>17.15780910989969</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.83242686392428</v>
+        <v>27.24295665756311</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.5982597355908</v>
+        <v>17.22427569990756</v>
       </c>
       <c r="C3">
-        <v>11.9304989669432</v>
+        <v>10.5331417801198</v>
       </c>
       <c r="D3">
-        <v>8.65358514474948</v>
+        <v>13.86350227562167</v>
       </c>
       <c r="E3">
-        <v>8.593854886394817</v>
+        <v>14.6998951428765</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.50494502187492</v>
+        <v>39.34762155926313</v>
       </c>
       <c r="H3">
-        <v>10.11774366644206</v>
+        <v>17.06374967402619</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.625839933332948</v>
+        <v>8.916098445836479</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.196205190232952</v>
+        <v>11.82997651747835</v>
       </c>
       <c r="M3">
-        <v>12.64841533997528</v>
+        <v>17.04850186824684</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.90431169741435</v>
+        <v>27.35813233340279</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.71304190126511</v>
+        <v>16.93553387802879</v>
       </c>
       <c r="C4">
-        <v>11.66119764413053</v>
+        <v>10.43036066999414</v>
       </c>
       <c r="D4">
-        <v>8.609580416326358</v>
+        <v>13.88216668703177</v>
       </c>
       <c r="E4">
-        <v>8.670352571461294</v>
+        <v>14.73222460620112</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.42875163948425</v>
+        <v>39.45853227954999</v>
       </c>
       <c r="H4">
-        <v>10.18142812898525</v>
+        <v>17.10744027263861</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.632430625193845</v>
+        <v>8.919857241285207</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.121093224157618</v>
+        <v>11.83054290115346</v>
       </c>
       <c r="M4">
-        <v>12.26304467285532</v>
+        <v>16.98283087974408</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.96558761413102</v>
+        <v>27.43503725829338</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.34058033457549</v>
+        <v>16.81681645472039</v>
       </c>
       <c r="C5">
-        <v>11.54981416450452</v>
+        <v>10.38816969930818</v>
       </c>
       <c r="D5">
-        <v>8.59297041352356</v>
+        <v>13.89039217764852</v>
       </c>
       <c r="E5">
-        <v>8.702318908507813</v>
+        <v>14.74583762431645</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.40639592218582</v>
+        <v>39.50680323969567</v>
       </c>
       <c r="H5">
-        <v>10.20917887438094</v>
+        <v>17.12600066305139</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.635250315445429</v>
+        <v>8.921459743143533</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.090864320640276</v>
+        <v>11.83109514089269</v>
       </c>
       <c r="M5">
-        <v>12.10320516631106</v>
+        <v>16.95645151891427</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.99467527222725</v>
+        <v>27.467929246746</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.2780264016537</v>
+        <v>16.79704486625934</v>
       </c>
       <c r="C6">
-        <v>11.53122356422794</v>
+        <v>10.38114650663763</v>
       </c>
       <c r="D6">
-        <v>8.59029170910012</v>
+        <v>13.8917954261656</v>
       </c>
       <c r="E6">
-        <v>8.707674749266205</v>
+        <v>14.74812456892522</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.40319866541949</v>
+        <v>39.5150038312383</v>
       </c>
       <c r="H6">
-        <v>10.21389347098265</v>
+        <v>17.12912826482741</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.635726607448271</v>
+        <v>8.921730117823518</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.085868517399721</v>
+        <v>11.83120628585777</v>
       </c>
       <c r="M6">
-        <v>12.07650098034404</v>
+        <v>16.95209486748038</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.99974836630095</v>
+        <v>27.47348462006332</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.70806618325487</v>
+        <v>16.93393685429277</v>
       </c>
       <c r="C7">
-        <v>11.6597019686952</v>
+        <v>10.42979285975921</v>
       </c>
       <c r="D7">
-        <v>8.609351075792937</v>
+        <v>13.88227511059467</v>
       </c>
       <c r="E7">
-        <v>8.670780471826763</v>
+        <v>14.73240641934538</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.42841539881942</v>
+        <v>39.45917085142477</v>
       </c>
       <c r="H7">
-        <v>10.1817951944887</v>
+        <v>17.10768752328543</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.632468110447995</v>
+        <v>8.919878566375129</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.120683975045881</v>
+        <v>11.83054904591181</v>
       </c>
       <c r="M7">
-        <v>12.26090008183262</v>
+        <v>16.98247354670986</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.96596348168406</v>
+        <v>27.43547456879217</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.53317271260883</v>
+        <v>17.52833028010949</v>
       </c>
       <c r="C8">
-        <v>12.21192756019934</v>
+        <v>10.64166359261816</v>
       </c>
       <c r="D8">
-        <v>8.705104776992245</v>
+        <v>13.84570429354683</v>
       </c>
       <c r="E8">
-        <v>8.514939295726302</v>
+        <v>14.66689269184728</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.61691067235952</v>
+        <v>39.23981684574828</v>
       </c>
       <c r="H8">
-        <v>10.0561372498092</v>
+        <v>17.01971274892228</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.619265342108915</v>
+        <v>8.912328707460658</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.277583015739871</v>
+        <v>11.83046764169889</v>
       </c>
       <c r="M8">
-        <v>13.04954402788809</v>
+        <v>17.11983178774524</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.85353905893597</v>
+        <v>27.28138337265275</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.79020736018462</v>
+        <v>18.6489243222035</v>
       </c>
       <c r="C9">
-        <v>13.23494868823163</v>
+        <v>11.04466716589779</v>
       </c>
       <c r="D9">
-        <v>8.935602684182582</v>
+        <v>13.79355753219077</v>
       </c>
       <c r="E9">
-        <v>8.234505651830421</v>
+        <v>14.55218093149132</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.28469812966262</v>
+        <v>38.90771523411095</v>
       </c>
       <c r="H9">
-        <v>9.872198303509167</v>
+        <v>16.87106550964653</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.597616955438911</v>
+        <v>8.899739340492427</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.595325292491413</v>
+        <v>11.84036170245179</v>
       </c>
       <c r="M9">
-        <v>14.49514776117431</v>
+        <v>17.39979450224508</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.77779016414652</v>
+        <v>27.02843451194385</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.93951959059528</v>
+        <v>19.43659359980696</v>
       </c>
       <c r="C10">
-        <v>13.94501920158302</v>
+        <v>11.33108454314236</v>
       </c>
       <c r="D10">
-        <v>9.131569700107212</v>
+        <v>13.76718325948352</v>
       </c>
       <c r="E10">
-        <v>8.044011494930455</v>
+        <v>14.47622798226169</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.97303274413008</v>
+        <v>38.72429192338888</v>
       </c>
       <c r="H10">
-        <v>9.780181463405588</v>
+        <v>16.77641658569591</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.584316487936568</v>
+        <v>8.891827480289027</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.833461669593092</v>
+        <v>11.85368663155074</v>
       </c>
       <c r="M10">
-        <v>15.48847643186433</v>
+        <v>17.61077638388364</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.82240948976601</v>
+        <v>26.87278464110016</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.86555420084127</v>
+        <v>19.78566594983639</v>
       </c>
       <c r="C11">
-        <v>14.25820928109232</v>
+        <v>11.45887246487156</v>
       </c>
       <c r="D11">
-        <v>9.226582047975915</v>
+        <v>13.75777686697511</v>
       </c>
       <c r="E11">
-        <v>7.96079043858555</v>
+        <v>14.44346958857852</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.33184231838549</v>
+        <v>38.65415810737455</v>
       </c>
       <c r="H11">
-        <v>9.748865690289994</v>
+        <v>16.73652283605464</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.578836579559407</v>
+        <v>8.888515804695601</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.942529888131125</v>
+        <v>11.86104623908867</v>
       </c>
       <c r="M11">
-        <v>15.9243679147614</v>
+        <v>17.70765081692322</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.86706893627846</v>
+        <v>26.80857017327761</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.20888168761407</v>
+        <v>19.91640883589585</v>
       </c>
       <c r="C12">
-        <v>14.37533981245956</v>
+        <v>11.50686979804277</v>
       </c>
       <c r="D12">
-        <v>9.263408369999041</v>
+        <v>13.75458731378463</v>
       </c>
       <c r="E12">
-        <v>7.929778477861986</v>
+        <v>14.43132168384667</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.47446299595087</v>
+        <v>38.62952554191521</v>
       </c>
       <c r="H12">
-        <v>9.738627634081626</v>
+        <v>16.72187118220873</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.576844060549372</v>
+        <v>8.887302873645044</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.983915492263985</v>
+        <v>11.86401815699884</v>
       </c>
       <c r="M12">
-        <v>16.08706716389623</v>
+        <v>17.74444176754536</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.88769418147954</v>
+        <v>26.78520489110682</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.13526499178746</v>
+        <v>19.8883169134756</v>
       </c>
       <c r="C13">
-        <v>14.35017970043123</v>
+        <v>11.49655070858248</v>
       </c>
       <c r="D13">
-        <v>9.255439432797697</v>
+        <v>13.75525768102761</v>
       </c>
       <c r="E13">
-        <v>7.936434984195835</v>
+        <v>14.43392653613389</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.44344446029164</v>
+        <v>38.63474477959456</v>
       </c>
       <c r="H13">
-        <v>9.740758789897541</v>
+        <v>16.72500642320812</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.577269501595055</v>
+        <v>8.88756227415613</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.974998968734051</v>
+        <v>11.86336990100027</v>
       </c>
       <c r="M13">
-        <v>16.05213294719838</v>
+        <v>17.73651378979768</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.88308367715442</v>
+        <v>26.79019465620099</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.89394655891567</v>
+        <v>19.79645178791466</v>
       </c>
       <c r="C14">
-        <v>14.26787537429533</v>
+        <v>11.46282929754084</v>
       </c>
       <c r="D14">
-        <v>9.229594774195554</v>
+        <v>13.75750699774675</v>
       </c>
       <c r="E14">
-        <v>7.958228952267383</v>
+        <v>14.44246502749542</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.34343966307844</v>
+        <v>38.6520929129722</v>
       </c>
       <c r="H14">
-        <v>9.74799030429558</v>
+        <v>16.73530830914144</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.578670994835684</v>
+        <v>8.888415193041755</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.945933147741405</v>
+        <v>11.86128704282391</v>
       </c>
       <c r="M14">
-        <v>15.93780096145386</v>
+        <v>17.71067562062419</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.86869016405749</v>
+        <v>26.80662881123499</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.74517873515072</v>
+        <v>19.73999058053106</v>
       </c>
       <c r="C15">
-        <v>14.21726899939671</v>
+        <v>11.44212180415677</v>
       </c>
       <c r="D15">
-        <v>9.213874600784496</v>
+        <v>13.75893326443192</v>
       </c>
       <c r="E15">
-        <v>7.971644034655726</v>
+        <v>14.44772854267678</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.28306732877785</v>
+        <v>38.6629702610524</v>
       </c>
       <c r="H15">
-        <v>9.752634047530101</v>
+        <v>16.74167781223758</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.579540225288318</v>
+        <v>8.888942980466409</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.928139779911292</v>
+        <v>11.86003527299316</v>
       </c>
       <c r="M15">
-        <v>15.86745987802318</v>
+        <v>17.69486222594846</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.86036355345269</v>
+        <v>26.81681920177399</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.87796858422509</v>
+        <v>19.41358492287191</v>
       </c>
       <c r="C16">
-        <v>13.92434885636685</v>
+        <v>11.32268004240967</v>
       </c>
       <c r="D16">
-        <v>9.125478794695345</v>
+        <v>13.76785012087451</v>
       </c>
       <c r="E16">
-        <v>8.049519967582217</v>
+        <v>14.47840482758546</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.95051884406896</v>
+        <v>38.7291441478767</v>
       </c>
       <c r="H16">
-        <v>9.782448988771179</v>
+        <v>16.77908741449308</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.584686139698696</v>
+        <v>8.892049672785372</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.826346712605896</v>
+        <v>11.8532316435784</v>
       </c>
       <c r="M16">
-        <v>15.45966235579778</v>
+        <v>17.6044615653506</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.81999916309881</v>
+        <v>26.87711414469013</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.33278693517845</v>
+        <v>19.21089388933375</v>
       </c>
       <c r="C17">
-        <v>13.74209303643018</v>
+        <v>11.2487408759081</v>
       </c>
       <c r="D17">
-        <v>9.072756186923806</v>
+        <v>13.77398394104332</v>
       </c>
       <c r="E17">
-        <v>8.098179468998943</v>
+        <v>14.49768235873657</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.75834770115958</v>
+        <v>38.77315665674003</v>
       </c>
       <c r="H17">
-        <v>9.803512521308864</v>
+        <v>16.80284732600427</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.587989495021494</v>
+        <v>8.894029006425082</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.764072648196701</v>
+        <v>11.84938913981403</v>
       </c>
       <c r="M17">
-        <v>15.20534696060676</v>
+        <v>17.5492177284025</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.80162709755243</v>
+        <v>26.91579387205744</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.01434108666877</v>
+        <v>19.09344759314907</v>
       </c>
       <c r="C18">
-        <v>13.63634217082072</v>
+        <v>11.20597913545036</v>
       </c>
       <c r="D18">
-        <v>9.042983530082891</v>
+        <v>13.77775588600895</v>
       </c>
       <c r="E18">
-        <v>8.126489937802123</v>
+        <v>14.50893909840268</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.65210713420663</v>
+        <v>38.79972326773583</v>
       </c>
       <c r="H18">
-        <v>9.816613507138843</v>
+        <v>16.81681104064304</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.589943161562702</v>
+        <v>8.895194537156975</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.728325021859768</v>
+        <v>11.84730131492229</v>
       </c>
       <c r="M18">
-        <v>15.05757023667676</v>
+        <v>17.51752878142951</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.79334055893031</v>
+        <v>26.93866163902313</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.90568129123025</v>
+        <v>19.05353759051302</v>
       </c>
       <c r="C19">
-        <v>13.60038021544154</v>
+        <v>11.19146160590652</v>
       </c>
       <c r="D19">
-        <v>9.032997696986856</v>
+        <v>13.77907490163098</v>
       </c>
       <c r="E19">
-        <v>8.136130602154953</v>
+        <v>14.51277945676574</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.61686700876356</v>
+        <v>38.808932877185</v>
       </c>
       <c r="H19">
-        <v>9.821215489827374</v>
+        <v>16.82159002050444</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.590613840505664</v>
+        <v>8.895593821596556</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.716234358008665</v>
+        <v>11.84661546446616</v>
       </c>
       <c r="M19">
-        <v>15.00728002515612</v>
+        <v>17.50681487282339</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.7909201189161</v>
+        <v>26.94651068633424</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.39132600305727</v>
+        <v>19.23256095328922</v>
       </c>
       <c r="C20">
-        <v>13.76159034914935</v>
+        <v>11.25663627696303</v>
       </c>
       <c r="D20">
-        <v>9.078311439765367</v>
+        <v>13.77330574021802</v>
       </c>
       <c r="E20">
-        <v>8.092966119685553</v>
+        <v>14.49561276718848</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.77835914225864</v>
+        <v>38.76834180495635</v>
       </c>
       <c r="H20">
-        <v>9.801167505719977</v>
+        <v>16.80028723461181</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.587632289386065</v>
+        <v>8.893815502816336</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.770694672812736</v>
+        <v>11.84978553696581</v>
       </c>
       <c r="M20">
-        <v>15.23257517116219</v>
+        <v>17.55508980610541</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.80334527036067</v>
+        <v>26.9116121340054</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.96502613317892</v>
+        <v>19.82347483025382</v>
       </c>
       <c r="C21">
-        <v>14.29209037093733</v>
+        <v>11.47274501914705</v>
       </c>
       <c r="D21">
-        <v>9.237162958696191</v>
+        <v>13.75683621305824</v>
       </c>
       <c r="E21">
-        <v>7.951813837946932</v>
+        <v>14.4399500976661</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.37262909900997</v>
+        <v>38.64694499288098</v>
       </c>
       <c r="H21">
-        <v>9.745821393841402</v>
+        <v>16.73227003648043</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.578257095608805</v>
+        <v>8.888163555530113</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.954468377326148</v>
+        <v>11.86189382173396</v>
       </c>
       <c r="M21">
-        <v>15.97144761785808</v>
+        <v>17.71826220019194</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.8728154357137</v>
+        <v>26.80177585468689</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.95078204423097</v>
+        <v>20.20121312935593</v>
       </c>
       <c r="C22">
-        <v>14.63022933874201</v>
+        <v>11.61167866319146</v>
       </c>
       <c r="D22">
-        <v>9.345921025602545</v>
+        <v>13.74824313348332</v>
       </c>
       <c r="E22">
-        <v>7.862493953567147</v>
+        <v>14.4050688667175</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.80041041037504</v>
+        <v>38.57883402610739</v>
       </c>
       <c r="H22">
-        <v>9.719147440994449</v>
+        <v>16.69047060290613</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.572611658079383</v>
+        <v>8.88470931435511</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.075054857373361</v>
+        <v>11.87088474255038</v>
       </c>
       <c r="M22">
-        <v>16.44054902212461</v>
+        <v>17.82551631350238</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.93995986880953</v>
+        <v>26.73553824124554</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.4285456898881</v>
+        <v>20.00041609059504</v>
       </c>
       <c r="C23">
-        <v>14.4505581782779</v>
+        <v>11.53774863679593</v>
       </c>
       <c r="D23">
-        <v>9.287421812649486</v>
+        <v>13.75263089810343</v>
       </c>
       <c r="E23">
-        <v>7.909894346501825</v>
+        <v>14.42354888563677</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.56843949944094</v>
+        <v>38.61415488317779</v>
       </c>
       <c r="H23">
-        <v>9.732478916022567</v>
+        <v>16.71253676912125</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.575580444135589</v>
+        <v>8.886531050144256</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.010658560822773</v>
+        <v>11.86598810255159</v>
       </c>
       <c r="M23">
-        <v>16.19146033282015</v>
+        <v>17.7682242384418</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.90206547897387</v>
+        <v>26.77038183073068</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.36487611384815</v>
+        <v>19.22276811964994</v>
       </c>
       <c r="C24">
-        <v>13.75277862976376</v>
+        <v>11.25306755208038</v>
       </c>
       <c r="D24">
-        <v>9.075798233640405</v>
+        <v>13.77361159000162</v>
       </c>
       <c r="E24">
-        <v>8.095322030568781</v>
+        <v>14.49654788799375</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.76929877321606</v>
+        <v>38.77051466544883</v>
       </c>
       <c r="H24">
-        <v>9.802224607497267</v>
+        <v>16.80144370554861</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.587793612266482</v>
+        <v>8.893911941853446</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.767700683808123</v>
+        <v>11.84960594791009</v>
       </c>
       <c r="M24">
-        <v>15.22027017415007</v>
+        <v>17.55243481544099</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.80256141178858</v>
+        <v>26.91350073474016</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95226115404355</v>
+        <v>18.35147923310608</v>
       </c>
       <c r="C25">
-        <v>12.96517310582641</v>
+        <v>10.93719760878318</v>
       </c>
       <c r="D25">
-        <v>8.86860478877237</v>
+        <v>13.80556836730898</v>
       </c>
       <c r="E25">
-        <v>8.307659307860993</v>
+        <v>14.58174690327507</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.07035443539037</v>
+        <v>38.98697570637674</v>
       </c>
       <c r="H25">
-        <v>9.914768268017212</v>
+        <v>16.90872201743242</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.60301757144824</v>
+        <v>8.902909254139328</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.508442352446977</v>
+        <v>11.83661600371732</v>
       </c>
       <c r="M25">
-        <v>14.11571592544516</v>
+        <v>17.32304136923039</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.78154934670446</v>
+        <v>27.09157507568348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_219/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.6866637779875</v>
+        <v>21.01178099470777</v>
       </c>
       <c r="C2">
-        <v>10.6983053153646</v>
+        <v>12.35771565407808</v>
       </c>
       <c r="D2">
-        <v>13.83711915403442</v>
+        <v>8.733913783597707</v>
       </c>
       <c r="E2">
-        <v>14.65007535403013</v>
+        <v>8.474412421422025</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>39.18698738840938</v>
+        <v>26.6874948868598</v>
       </c>
       <c r="H2">
-        <v>16.99749112202236</v>
+        <v>10.02614187075728</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.910433531478912</v>
+        <v>5.615974581518816</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.83112848282943</v>
+        <v>7.320831027284661</v>
       </c>
       <c r="M2">
-        <v>17.15780910989969</v>
+        <v>13.25672205770268</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.24295665756311</v>
+        <v>16.83242686392422</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.22427569990756</v>
+        <v>19.59825973559082</v>
       </c>
       <c r="C3">
-        <v>10.5331417801198</v>
+        <v>11.93049896694328</v>
       </c>
       <c r="D3">
-        <v>13.86350227562167</v>
+        <v>8.653585144749291</v>
       </c>
       <c r="E3">
-        <v>14.6998951428765</v>
+        <v>8.593854886394823</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>39.34762155926313</v>
+        <v>26.5049450218748</v>
       </c>
       <c r="H3">
-        <v>17.06374967402619</v>
+        <v>10.11774366644206</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.916098445836479</v>
+        <v>5.625839933333081</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.82997651747835</v>
+        <v>7.196205190232906</v>
       </c>
       <c r="M3">
-        <v>17.04850186824684</v>
+        <v>12.64841533997528</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.35813233340279</v>
+        <v>16.90431169741429</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.93553387802879</v>
+        <v>18.71304190126513</v>
       </c>
       <c r="C4">
-        <v>10.43036066999414</v>
+        <v>11.66119764413063</v>
       </c>
       <c r="D4">
-        <v>13.88216668703177</v>
+        <v>8.609580416326427</v>
       </c>
       <c r="E4">
-        <v>14.73222460620112</v>
+        <v>8.670352571461363</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>39.45853227954999</v>
+        <v>26.42875163948419</v>
       </c>
       <c r="H4">
-        <v>17.10744027263861</v>
+        <v>10.1814281289852</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.919857241285207</v>
+        <v>5.632430625193879</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.83054290115346</v>
+        <v>7.121093224157605</v>
       </c>
       <c r="M4">
-        <v>16.98283087974408</v>
+        <v>12.26304467285529</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.43503725829338</v>
+        <v>16.96558761413096</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.81681645472039</v>
+        <v>18.3405803345755</v>
       </c>
       <c r="C5">
-        <v>10.38816969930818</v>
+        <v>11.54981416450442</v>
       </c>
       <c r="D5">
-        <v>13.89039217764852</v>
+        <v>8.592970413523677</v>
       </c>
       <c r="E5">
-        <v>14.74583762431645</v>
+        <v>8.702318908507685</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>39.50680323969567</v>
+        <v>26.40639592218573</v>
       </c>
       <c r="H5">
-        <v>17.12600066305139</v>
+        <v>10.20917887438094</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.921459743143533</v>
+        <v>5.635250315445293</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.83109514089269</v>
+        <v>7.090864320640224</v>
       </c>
       <c r="M5">
-        <v>16.95645151891427</v>
+        <v>12.10320516631101</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.467929246746</v>
+        <v>16.99467527222724</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.79704486625934</v>
+        <v>18.2780264016537</v>
       </c>
       <c r="C6">
-        <v>10.38114650663763</v>
+        <v>11.53122356422793</v>
       </c>
       <c r="D6">
-        <v>13.8917954261656</v>
+        <v>8.590291709100031</v>
       </c>
       <c r="E6">
-        <v>14.74812456892522</v>
+        <v>8.707674749266207</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>39.5150038312383</v>
+        <v>26.40319866541952</v>
       </c>
       <c r="H6">
-        <v>17.12912826482741</v>
+        <v>10.21389347098254</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.921730117823518</v>
+        <v>5.635726607448369</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.83120628585777</v>
+        <v>7.085868517399701</v>
       </c>
       <c r="M6">
-        <v>16.95209486748038</v>
+        <v>12.07650098034403</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.47348462006332</v>
+        <v>16.9997483663009</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.93393685429277</v>
+        <v>18.70806618325486</v>
       </c>
       <c r="C7">
-        <v>10.42979285975921</v>
+        <v>11.65970196869518</v>
       </c>
       <c r="D7">
-        <v>13.88227511059467</v>
+        <v>8.609351075792992</v>
       </c>
       <c r="E7">
-        <v>14.73240641934538</v>
+        <v>8.670780471826568</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>39.45917085142477</v>
+        <v>26.42841539881916</v>
       </c>
       <c r="H7">
-        <v>17.10768752328543</v>
+        <v>10.18179519448864</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.919878566375129</v>
+        <v>5.632468110447894</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.83054904591181</v>
+        <v>7.120683975045806</v>
       </c>
       <c r="M7">
-        <v>16.98247354670986</v>
+        <v>12.26090008183256</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.43547456879217</v>
+        <v>16.96596348168388</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.52833028010949</v>
+        <v>20.53317271260885</v>
       </c>
       <c r="C8">
-        <v>10.64166359261816</v>
+        <v>12.21192756019934</v>
       </c>
       <c r="D8">
-        <v>13.84570429354683</v>
+        <v>8.705104776992336</v>
       </c>
       <c r="E8">
-        <v>14.66689269184728</v>
+        <v>8.514939295726306</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>39.23981684574828</v>
+        <v>26.61691067235954</v>
       </c>
       <c r="H8">
-        <v>17.01971274892228</v>
+        <v>10.05613724980921</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.912328707460658</v>
+        <v>5.619265342108849</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.83046764169889</v>
+        <v>7.277583015739869</v>
       </c>
       <c r="M8">
-        <v>17.11983178774524</v>
+        <v>13.04954402788809</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.28138337265275</v>
+        <v>16.85353905893599</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.6489243222035</v>
+        <v>23.79020736018465</v>
       </c>
       <c r="C9">
-        <v>11.04466716589779</v>
+        <v>13.2349486882318</v>
       </c>
       <c r="D9">
-        <v>13.79355753219077</v>
+        <v>8.935602684182657</v>
       </c>
       <c r="E9">
-        <v>14.55218093149132</v>
+        <v>8.234505651830489</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.90771523411095</v>
+        <v>27.28469812966239</v>
       </c>
       <c r="H9">
-        <v>16.87106550964653</v>
+        <v>9.87219830350918</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.899739340492427</v>
+        <v>5.597616955438878</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.84036170245179</v>
+        <v>7.595325292491417</v>
       </c>
       <c r="M9">
-        <v>17.39979450224508</v>
+        <v>14.4951477611743</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.02843451194385</v>
+        <v>16.77779016414643</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.43659359980696</v>
+        <v>25.9395195905953</v>
       </c>
       <c r="C10">
-        <v>11.33108454314236</v>
+        <v>13.94501920158282</v>
       </c>
       <c r="D10">
-        <v>13.76718325948352</v>
+        <v>9.131569700107381</v>
       </c>
       <c r="E10">
-        <v>14.47622798226169</v>
+        <v>8.044011494930507</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>38.72429192338888</v>
+        <v>27.9730327441302</v>
       </c>
       <c r="H10">
-        <v>16.77641658569591</v>
+        <v>9.78018146340556</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.891827480289027</v>
+        <v>5.584316487936534</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.85368663155074</v>
+        <v>7.833461669593151</v>
       </c>
       <c r="M10">
-        <v>17.61077638388364</v>
+        <v>15.48847643186436</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.87278464110016</v>
+        <v>16.82240948976602</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.78566594983639</v>
+        <v>26.86555420084127</v>
       </c>
       <c r="C11">
-        <v>11.45887246487156</v>
+        <v>14.25820928109244</v>
       </c>
       <c r="D11">
-        <v>13.75777686697511</v>
+        <v>9.226582047975947</v>
       </c>
       <c r="E11">
-        <v>14.44346958857852</v>
+        <v>7.960790438585609</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>38.65415810737455</v>
+        <v>28.33184231838525</v>
       </c>
       <c r="H11">
-        <v>16.73652283605464</v>
+        <v>9.748865690289978</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.888515804695601</v>
+        <v>5.578836579559472</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.86104623908867</v>
+        <v>7.942529888131123</v>
       </c>
       <c r="M11">
-        <v>17.70765081692322</v>
+        <v>15.92436791476141</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.80857017327761</v>
+        <v>16.86706893627837</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.91640883589585</v>
+        <v>27.20888168761408</v>
       </c>
       <c r="C12">
-        <v>11.50686979804277</v>
+        <v>14.37533981245935</v>
       </c>
       <c r="D12">
-        <v>13.75458731378463</v>
+        <v>9.263408369998976</v>
       </c>
       <c r="E12">
-        <v>14.43132168384667</v>
+        <v>7.929778477861928</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>38.62952554191521</v>
+        <v>28.47446299595092</v>
       </c>
       <c r="H12">
-        <v>16.72187118220873</v>
+        <v>9.738627634081498</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.887302873645044</v>
+        <v>5.576844060549341</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.86401815699884</v>
+        <v>7.98391549226395</v>
       </c>
       <c r="M12">
-        <v>17.74444176754536</v>
+        <v>16.08706716389621</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.78520489110682</v>
+        <v>16.88769418147948</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.8883169134756</v>
+        <v>27.13526499178752</v>
       </c>
       <c r="C13">
-        <v>11.49655070858248</v>
+        <v>14.35017970043096</v>
       </c>
       <c r="D13">
-        <v>13.75525768102761</v>
+        <v>9.255439432797598</v>
       </c>
       <c r="E13">
-        <v>14.43392653613389</v>
+        <v>7.936434984195702</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>38.63474477959456</v>
+        <v>28.44344446029154</v>
       </c>
       <c r="H13">
-        <v>16.72500642320812</v>
+        <v>9.74075878989758</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.88756227415613</v>
+        <v>5.577269501595059</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.86336990100027</v>
+        <v>7.974998968734076</v>
       </c>
       <c r="M13">
-        <v>17.73651378979768</v>
+        <v>16.05213294719836</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.79019465620099</v>
+        <v>16.88308367715441</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.79645178791466</v>
+        <v>26.89394655891572</v>
       </c>
       <c r="C14">
-        <v>11.46282929754084</v>
+        <v>14.26787537429542</v>
       </c>
       <c r="D14">
-        <v>13.75750699774675</v>
+        <v>9.229594774195474</v>
       </c>
       <c r="E14">
-        <v>14.44246502749542</v>
+        <v>7.958228952267318</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>38.6520929129722</v>
+        <v>28.3434396630783</v>
       </c>
       <c r="H14">
-        <v>16.73530830914144</v>
+        <v>9.747990304295486</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.888415193041755</v>
+        <v>5.578670994835718</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.86128704282391</v>
+        <v>7.945933147741312</v>
       </c>
       <c r="M14">
-        <v>17.71067562062419</v>
+        <v>15.93780096145384</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.80662881123499</v>
+        <v>16.86869016405736</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.73999058053106</v>
+        <v>26.74517873515069</v>
       </c>
       <c r="C15">
-        <v>11.44212180415677</v>
+        <v>14.21726899939698</v>
       </c>
       <c r="D15">
-        <v>13.75893326443192</v>
+        <v>9.213874600784562</v>
       </c>
       <c r="E15">
-        <v>14.44772854267678</v>
+        <v>7.971644034655728</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.6629702610524</v>
+        <v>28.28306732877777</v>
       </c>
       <c r="H15">
-        <v>16.74167781223758</v>
+        <v>9.752634047530135</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.888942980466409</v>
+        <v>5.579540225288252</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.86003527299316</v>
+        <v>7.928139779911203</v>
       </c>
       <c r="M15">
-        <v>17.69486222594846</v>
+        <v>15.86745987802317</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.81681920177399</v>
+        <v>16.86036355345266</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.41358492287191</v>
+        <v>25.87796858422513</v>
       </c>
       <c r="C16">
-        <v>11.32268004240967</v>
+        <v>13.92434885636667</v>
       </c>
       <c r="D16">
-        <v>13.76785012087451</v>
+        <v>9.125478794695274</v>
       </c>
       <c r="E16">
-        <v>14.47840482758546</v>
+        <v>8.049519967582215</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.7291441478767</v>
+        <v>27.95051884406894</v>
       </c>
       <c r="H16">
-        <v>16.77908741449308</v>
+        <v>9.782448988771133</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.892049672785372</v>
+        <v>5.58468613969876</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.8532316435784</v>
+        <v>7.826346712605939</v>
       </c>
       <c r="M16">
-        <v>17.6044615653506</v>
+        <v>15.45966235579776</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.87711414469013</v>
+        <v>16.81999916309876</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.21089388933375</v>
+        <v>25.33278693517846</v>
       </c>
       <c r="C17">
-        <v>11.2487408759081</v>
+        <v>13.74209303643027</v>
       </c>
       <c r="D17">
-        <v>13.77398394104332</v>
+        <v>9.072756186923765</v>
       </c>
       <c r="E17">
-        <v>14.49768235873657</v>
+        <v>8.098179468999</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>38.77315665674003</v>
+        <v>27.75834770115949</v>
       </c>
       <c r="H17">
-        <v>16.80284732600427</v>
+        <v>9.803512521308757</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.894029006425082</v>
+        <v>5.587989495021596</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.84938913981403</v>
+        <v>7.764072648196653</v>
       </c>
       <c r="M17">
-        <v>17.5492177284025</v>
+        <v>15.20534696060677</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.91579387205744</v>
+        <v>16.80162709755236</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.09344759314907</v>
+        <v>25.01434108666879</v>
       </c>
       <c r="C18">
-        <v>11.20597913545036</v>
+        <v>13.6363421708206</v>
       </c>
       <c r="D18">
-        <v>13.77775588600895</v>
+        <v>9.042983530082978</v>
       </c>
       <c r="E18">
-        <v>14.50893909840268</v>
+        <v>8.126489937802125</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>38.79972326773583</v>
+        <v>27.65210713420666</v>
       </c>
       <c r="H18">
-        <v>16.81681104064304</v>
+        <v>9.81661350713885</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.895194537156975</v>
+        <v>5.589943161562634</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.84730131492229</v>
+        <v>7.728325021859815</v>
       </c>
       <c r="M18">
-        <v>17.51752878142951</v>
+        <v>15.05757023667676</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.93866163902313</v>
+        <v>16.79334055893032</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.05353759051302</v>
+        <v>24.90568129123027</v>
       </c>
       <c r="C19">
-        <v>11.19146160590652</v>
+        <v>13.60038021544163</v>
       </c>
       <c r="D19">
-        <v>13.77907490163098</v>
+        <v>9.032997696986985</v>
       </c>
       <c r="E19">
-        <v>14.51277945676574</v>
+        <v>8.136130602155147</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>38.808932877185</v>
+        <v>27.61686700876337</v>
       </c>
       <c r="H19">
-        <v>16.82159002050444</v>
+        <v>9.821215489827342</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.895593821596556</v>
+        <v>5.590613840505761</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.84661546446616</v>
+        <v>7.716234358008736</v>
       </c>
       <c r="M19">
-        <v>17.50681487282339</v>
+        <v>15.00728002515613</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.94651068633424</v>
+        <v>16.79092011891598</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.23256095328922</v>
+        <v>25.39132600305731</v>
       </c>
       <c r="C20">
-        <v>11.25663627696303</v>
+        <v>13.76159034914936</v>
       </c>
       <c r="D20">
-        <v>13.77330574021802</v>
+        <v>9.078311439765457</v>
       </c>
       <c r="E20">
-        <v>14.49561276718848</v>
+        <v>8.09296611968561</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>38.76834180495635</v>
+        <v>27.77835914225846</v>
       </c>
       <c r="H20">
-        <v>16.80028723461181</v>
+        <v>9.801167505719913</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.893815502816336</v>
+        <v>5.587632289386065</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.84978553696581</v>
+        <v>7.770694672812748</v>
       </c>
       <c r="M20">
-        <v>17.55508980610541</v>
+        <v>15.2325751711622</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.9116121340054</v>
+        <v>16.80334527036058</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.82347483025382</v>
+        <v>26.96502613317888</v>
       </c>
       <c r="C21">
-        <v>11.47274501914705</v>
+        <v>14.29209037093739</v>
       </c>
       <c r="D21">
-        <v>13.75683621305824</v>
+        <v>9.23716295869613</v>
       </c>
       <c r="E21">
-        <v>14.4399500976661</v>
+        <v>7.95181383794687</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>38.64694499288098</v>
+        <v>28.3726290990101</v>
       </c>
       <c r="H21">
-        <v>16.73227003648043</v>
+        <v>9.745821393841402</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.888163555530113</v>
+        <v>5.578257095608802</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.86189382173396</v>
+        <v>7.954468377326101</v>
       </c>
       <c r="M21">
-        <v>17.71826220019194</v>
+        <v>15.97144761785805</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.80177585468689</v>
+        <v>16.87281543571377</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.20121312935593</v>
+        <v>27.95078204423096</v>
       </c>
       <c r="C22">
-        <v>11.61167866319146</v>
+        <v>14.63022933874219</v>
       </c>
       <c r="D22">
-        <v>13.74824313348332</v>
+        <v>9.345921025602493</v>
       </c>
       <c r="E22">
-        <v>14.4050688667175</v>
+        <v>7.862493953567139</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>38.57883402610739</v>
+        <v>28.80041041037495</v>
       </c>
       <c r="H22">
-        <v>16.69047060290613</v>
+        <v>9.719147440994439</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.88470931435511</v>
+        <v>5.572611658079387</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.87088474255038</v>
+        <v>8.075054857373342</v>
       </c>
       <c r="M22">
-        <v>17.82551631350238</v>
+        <v>16.4405490221246</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.73553824124554</v>
+        <v>16.93995986880947</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.00041609059504</v>
+        <v>27.42854568988811</v>
       </c>
       <c r="C23">
-        <v>11.53774863679593</v>
+        <v>14.45055817827784</v>
       </c>
       <c r="D23">
-        <v>13.75263089810343</v>
+        <v>9.287421812649406</v>
       </c>
       <c r="E23">
-        <v>14.42354888563677</v>
+        <v>7.909894346501824</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>38.61415488317779</v>
+        <v>28.5684394994409</v>
       </c>
       <c r="H23">
-        <v>16.71253676912125</v>
+        <v>9.732478916022558</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.886531050144256</v>
+        <v>5.575580444135655</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.86598810255159</v>
+        <v>8.010658560822815</v>
       </c>
       <c r="M23">
-        <v>17.7682242384418</v>
+        <v>16.19146033282016</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.77038183073068</v>
+        <v>16.90206547897383</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.22276811964994</v>
+        <v>25.36487611384815</v>
       </c>
       <c r="C24">
-        <v>11.25306755208038</v>
+        <v>13.75277862976385</v>
       </c>
       <c r="D24">
-        <v>13.77361159000162</v>
+        <v>9.075798233640322</v>
       </c>
       <c r="E24">
-        <v>14.49654788799375</v>
+        <v>8.095322030568781</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>38.77051466544883</v>
+        <v>27.76929877321597</v>
       </c>
       <c r="H24">
-        <v>16.80144370554861</v>
+        <v>9.802224607497223</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.893911941853446</v>
+        <v>5.587793612266549</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.84960594791009</v>
+        <v>7.767700683808091</v>
       </c>
       <c r="M24">
-        <v>17.55243481544099</v>
+        <v>15.22027017415007</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.91350073474016</v>
+        <v>16.80256141178853</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.35147923310608</v>
+        <v>22.95226115404359</v>
       </c>
       <c r="C25">
-        <v>10.93719760878318</v>
+        <v>12.96517310582614</v>
       </c>
       <c r="D25">
-        <v>13.80556836730898</v>
+        <v>8.868604788772409</v>
       </c>
       <c r="E25">
-        <v>14.58174690327507</v>
+        <v>8.307659307860924</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.98697570637674</v>
+        <v>27.07035443539066</v>
       </c>
       <c r="H25">
-        <v>16.90872201743242</v>
+        <v>9.914768268017212</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.902909254139328</v>
+        <v>5.603017571448174</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.83661600371732</v>
+        <v>7.508442352447017</v>
       </c>
       <c r="M25">
-        <v>17.32304136923039</v>
+        <v>14.11571592544519</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.09157507568348</v>
+        <v>16.78154934670458</v>
       </c>
     </row>
   </sheetData>
